--- a/03.crawler/05.Standard/file/4.collate/crawler_2.xlsx
+++ b/03.crawler/05.Standard/file/4.collate/crawler_2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA11"/>
+  <dimension ref="A1:AB11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,99 +441,99 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Part Number</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Brand</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Part Number</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Partdesc_En</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Partlongdesc_En</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Pop</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Qtyeach</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>Vehicle</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Picture</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Url</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Type-1</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Type-2</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Attachment Method</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Color/Finish</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Connector Gender</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Connector Quantity</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Connector Shape</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Contents</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Finish</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Functions</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Partdesc_En</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Partlongdesc_En</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Pop</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Qtyeach</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>Service</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>Site</t>
-        </is>
-      </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Terminal Gender</t>
@@ -556,17 +556,22 @@
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>Webbase</t>
+          <t>Json_Src</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>Json_Src</t>
+          <t>Json_Type</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>Json_Spec</t>
+          <t>Json_Info</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Json_Specification</t>
         </is>
       </c>
     </row>
@@ -576,15 +581,33 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>DS-332</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>STD</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>DS-332</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
+        <is>
+          <t>Power Seat Switch</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Power Seat Switch</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Ford Fairmont (79-78)
 Mercury Cougar (82-80)
@@ -592,63 +615,38 @@
 Mercury Zephyr (79-78)</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>https://www.standardbrand.com/en/ecatalog?part=DS-332&amp;type=p&amp;search=s</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>https://www.standardbrand.com/en/ecatalog?part=DS332&amp;type=p&amp;search=s</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Switch - Power Seat</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr">
         <is>
           <t>Black</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>Female; Male</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr">
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr">
         <is>
           <t>Chrome, Plastic</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>Power Seat Switch</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>Power Seat Switch</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>1. Fuel Filter Flush (Required)
-2. Oil Change (Required)</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>STD</t>
-        </is>
-      </c>
+      <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr">
         <is>
           <t>Female; Female</t>
@@ -671,15 +669,20 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>DS332</t>
+          <t>{"0": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=oOFfYW7sc/jqlW0M67ceA/XC2fI504HHdVo4tgUyKGg9I9Lp04lrCdaJbO3JFZ1ObEHUQlckYE4Nr940p4e30JlpjLqJxiUyybkX50gqLN3gaqOveEiDkBzgNBE5AXOGt3TCYs9b4uHJB2bymKKm5IkwWUD6ZI5Qbl8Qg4knWkEFsCIv1tvbOTKd0s9BOH6Azo8mtOaBUp/sQw7Ujm769w==", "1": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=oOFfYW7sc/jqlW0M67ceA/XC2fI504HHdVo4tgUyKGg9I9Lp04lrCVm4v2v7Elz8bEHUQlckYE4Nr940p4e30JlpjLqJxiUyybkX50gqLN3gaqOveEiDkBzgNBE5AXOGt3TCYs9b4uHJB2bymKKm5IkwWUD6ZI5Qbl8Qg4knWkEFsCIv1tvbOTKd0s9BOH6Azo8mtOaBUp/sQw7Ujm769w==", "2": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=oOFfYW7sc/jqlW0M67ceA/XC2fI504HHdVo4tgUyKGg9I9Lp04lrCRC55VSuJ7NVbEHUQlckYE4Nr940p4e30JlpjLqJxiUyybkX50gqLN3gaqOveEiDkBzgNBE5AXOGt3TCYs9b4uHJB2bymKKm5IkwWUD6ZI5Qbl8Qg4knWkEFsCIv1tvbOTKd0s9BOH6Azo8mtOaBUp/sQw7Ujm769w=="}</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>{"0": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=oOFfYW7sc/jqlW0M67ceA/XC2fI504HHdVo4tgUyKGg9I9Lp04lrCdaJbO3JFZ1ObEHUQlckYE4Nr940p4e30JlpjLqJxiUyybkX50gqLN3gaqOveEiDkBzgNBE5AXOGt3TCYs9b4uHJB2bymKKm5IkwWUD6ZI5Qbl8Qg4knWkG60AzJsQudCHHPxerO8b+WH4wbajcd0Y6ISW+u5FsC5w==", "1": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=oOFfYW7sc/jqlW0M67ceA/XC2fI504HHdVo4tgUyKGg9I9Lp04lrCVm4v2v7Elz8bEHUQlckYE4Nr940p4e30JlpjLqJxiUyybkX50gqLN3gaqOveEiDkBzgNBE5AXOGt3TCYs9b4uHJB2bymKKm5IkwWUD6ZI5Qbl8Qg4knWkG60AzJsQudCHHPxerO8b+WH4wbajcd0Y6ISW+u5FsC5w==", "2": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=oOFfYW7sc/jqlW0M67ceA/XC2fI504HHdVo4tgUyKGg9I9Lp04lrCRC55VSuJ7NVbEHUQlckYE4Nr940p4e30JlpjLqJxiUyybkX50gqLN3gaqOveEiDkBzgNBE5AXOGt3TCYs9b4uHJB2bymKKm5IkwWUD6ZI5Qbl8Qg4knWkG60AzJsQudCHHPxerO8b+WH4wbajcd0Y6ISW+u5FsC5w=="}</t>
+          <t>{"0": "Switch - Power Seat"}</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
+        <is>
+          <t>{"Brand": "STD", "Partdesc_En": "Power Seat Switch", "Partlongdesc_En": "Power Seat Switch", "Pop": "X", "Qtyeach": 1}</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
         <is>
           <t>{"0": {"Warranty": "3 years/36,000 mile"}, "1": {"Connector Gender": "Female; Male"}, "2": {"Terminal Quantity": "6; 1"}, "3": {"Terminal Gender": "Female; Female"}, "4": {"Terminal Type": "Blade &amp; Bullet"}, "5": {"Color/Finish": "Black"}, "6": {"Finish": "Chrome, Plastic"}}</t>
         </is>
@@ -691,15 +694,33 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>DS-888</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>STD</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>DS-888</t>
-        </is>
-      </c>
       <c r="D3" t="inlineStr">
+        <is>
+          <t>Power Seat Switch</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Power Seat Switch</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Dodge B1500 (98-97)
 Dodge B2500 (98-97)
@@ -717,71 +738,46 @@
 Plymouth Acclaim (95-89)</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>https://www.standardbrand.com/en/ecatalog?part=DS-888&amp;type=p&amp;search=s</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>https://www.standardbrand.com/en/ecatalog?part=DS888&amp;type=p&amp;search=s</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Switch - Power Seat</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr">
         <is>
           <t>Black, Cream</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>Female</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>Rectangular</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr">
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr">
         <is>
           <t>Plastic</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>Power Seat Switch</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>Power Seat Switch</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>1. Fuel Filter Flush (Required)
-2. Oil Change (Required)</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>STD</t>
-        </is>
-      </c>
+      <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr">
         <is>
           <t>Male</t>
@@ -804,15 +800,20 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>DS888</t>
+          <t>{"0": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=HKbK6c2ovPHONpRUOTSOHPXC2fI504HHdVo4tgUyKGhnq+Xlq3HpvtaJbO3JFZ1ObEHUQlckYE4Nr940p4e30JlpjLqJxiUyybkX50gqLN3gaqOveEiDkBzgNBE5AXOGt3TCYs9b4uHJB2bymKKm5IkwWUD6ZI5Qbl8Qg4knWkEFsCIv1tvbOTKd0s9BOH6Azo8mtOaBUp/sQw7Ujm769w==", "1": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=HKbK6c2ovPHONpRUOTSOHPXC2fI504HHdVo4tgUyKGhnq+Xlq3HpvtnUqswtDXyE+eVEZTDlvl1ajs72oN+Z+iGDgw1SV0P+WgFFQ+xz7yDXzB5hZH05QPA/prADJr19gmbqr6KGmuwwgen7WR8nFH4f0UoEve02K/pu38eDlvT3WIodQfUFdV3A6DWBckYccd9/kUKUpHiYkCUjotx4/w==", "2": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=HKbK6c2ovPHONpRUOTSOHPXC2fI504HHdVo4tgUyKGhnq+Xlq3HpvvRdenL7hNp8bEHUQlckYE4Nr940p4e30JlpjLqJxiUyybkX50gqLN3gaqOveEiDkBzgNBE5AXOGt3TCYs9b4uHJB2bymKKm5IkwWUD6ZI5Qbl8Qg4knWkEFsCIv1tvbOTKd0s9BOH6Azo8mtOaBUp/sQw7Ujm769w==", "3": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=HKbK6c2ovPHONpRUOTSOHPXC2fI504HHdVo4tgUyKGhnq+Xlq3HpvhC55VSuJ7NVbEHUQlckYE4Nr940p4e30JlpjLqJxiUyybkX50gqLN3gaqOveEiDkBzgNBE5AXOGt3TCYs9b4uHJB2bymKKm5IkwWUD6ZI5Qbl8Qg4knWkEFsCIv1tvbOTKd0s9BOH6Azo8mtOaBUp/sQw7Ujm769w=="}</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>{"0": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=HKbK6c2ovPHONpRUOTSOHPXC2fI504HHdVo4tgUyKGhnq+Xlq3HpvtaJbO3JFZ1ObEHUQlckYE4Nr940p4e30JlpjLqJxiUyybkX50gqLN3gaqOveEiDkBzgNBE5AXOGt3TCYs9b4uHJB2bymKKm5IkwWUD6ZI5Qbl8Qg4knWkG60AzJsQudCHHPxerO8b+W4NyuopMQYEiISW+u5FsC5w==", "1": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=HKbK6c2ovPHONpRUOTSOHPXC2fI504HHdVo4tgUyKGhnq+Xlq3HpvtnUqswtDXyE+eVEZTDlvl1ajs72oN+Z+iGDgw1SV0P+WgFFQ+xz7yDXzB5hZH05QPA/prADJr19gmbqr6KGmuwwgen7WR8nFH4f0UoEve02K/pu38eDlvQG5oYJeh8Fg/dpFTx2s5WjdlqdhP3F3H/sQw7Ujm769w==", "2": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=HKbK6c2ovPHONpRUOTSOHPXC2fI504HHdVo4tgUyKGhnq+Xlq3HpvvRdenL7hNp8bEHUQlckYE4Nr940p4e30JlpjLqJxiUyybkX50gqLN3gaqOveEiDkBzgNBE5AXOGt3TCYs9b4uHJB2bymKKm5IkwWUD6ZI5Qbl8Qg4knWkG60AzJsQudCHHPxerO8b+W4NyuopMQYEiISW+u5FsC5w==", "3": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=HKbK6c2ovPHONpRUOTSOHPXC2fI504HHdVo4tgUyKGhnq+Xlq3HpvhC55VSuJ7NVbEHUQlckYE4Nr940p4e30JlpjLqJxiUyybkX50gqLN3gaqOveEiDkBzgNBE5AXOGt3TCYs9b4uHJB2bymKKm5IkwWUD6ZI5Qbl8Qg4knWkG60AzJsQudCHHPxerO8b+W4NyuopMQYEiISW+u5FsC5w=="}</t>
+          <t>{"0": "Switch - Power Seat"}</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
+        <is>
+          <t>{"Brand": "STD", "Partdesc_En": "Power Seat Switch", "Partlongdesc_En": "Power Seat Switch", "Pop": "C", "Qtyeach": 1}</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
         <is>
           <t>{"0": {"Warranty": "3 years/36,000 mile"}, "1": {"Connector Quantity": "1"}, "2": {"Connector Shape": "Rectangular"}, "3": {"Connector Gender": "Female"}, "4": {"Terminal Quantity": "8"}, "5": {"Terminal Gender": "Male"}, "6": {"Terminal Type": "Pin"}, "7": {"Color/Finish": "Black, Cream"}, "8": {"Finish": "Plastic"}}</t>
         </is>
@@ -824,15 +825,33 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>DS-1103</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>STD</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>DS-1103</t>
-        </is>
-      </c>
       <c r="D4" t="inlineStr">
+        <is>
+          <t>Power Seat Switch</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Power Seat Switch</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Chrysler 300M (04-00)
 Chrysler Concorde (04-97)
@@ -849,67 +868,42 @@
 Plymouth Voyager (00-96)</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>https://www.standardbrand.com/en/ecatalog?part=DS-1103&amp;type=p&amp;search=s</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>https://www.standardbrand.com/en/ecatalog?part=DS1103&amp;type=p&amp;search=s</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Switch - Power Seat</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr">
         <is>
           <t>Black</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>Female</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>1 Switch</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>Plastic</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>Power Seat Switch</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>Power Seat Switch</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>1. Fuel Filter Flush (Required)
-2. Oil Change (Required)</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>STD</t>
-        </is>
-      </c>
+      <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr">
         <is>
           <t>Male</t>
@@ -932,15 +926,20 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>DS1103</t>
+          <t>{"0": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=BdPKSxINcZObQDC70NWxLvOA3FM8wSUCTuE74rL23eR2HpFsFWKtNE+ijFXaAgeWnRaSzC3dZmboEyZGCTZQXGS/yUkBUvThK0HZgA1C4AGxzJCtT0EC3h5PFeAkVcMYsJ9MXbl4u4qQsP+xaLsnCdQCfVj8UUYFH/vcGamvfKrZu7Cn8K35U8mHI0SaQQhK60GG3xNox81tp5EMIddhrA==", "1": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=BdPKSxINcZObQDC70NWxLvOA3FM8wSUCTuE74rL23eR2HpFsFWKtNHYzHaHL6R2Yrm+ZHodTWPtGHGwNK6wuSZiH9+8ykTJFaACzcM2Fwb3lQjHfxmkEu/M2DCKxWi0p8RRteh9+Smi4/XfVIJ38wXfbMVRlDB7P783s11OnTH0m+illfMglRUwrIu6MmTvUPevG596SRpN+dI0Iq369yw==", "2": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=BdPKSxINcZObQDC70NWxLvOA3FM8wSUCTuE74rL23eR2HpFsFWKtNCVh+luC94SgnRaSzC3dZmboEyZGCTZQXGS/yUkBUvThK0HZgA1C4AGxzJCtT0EC3h5PFeAkVcMYsJ9MXbl4u4qQsP+xaLsnCdQCfVj8UUYFH/vcGamvfKrZu7Cn8K35U8mHI0SaQQhK60GG3xNox81tp5EMIddhrA=="}</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>{"0": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=BdPKSxINcZObQDC70NWxLvOA3FM8wSUCTuE74rL23eR2HpFsFWKtNE+ijFXaAgeWnRaSzC3dZmboEyZGCTZQXGS/yUkBUvThK0HZgA1C4AGxzJCtT0EC3h5PFeAkVcMYsJ9MXbl4u4qQsP+xaLsnCdQCfVj8UUYFH/vcGamvfKroTqQjDlLzWcHhnHrLS23TmZ9pifaPIA+YkCUjotx4/w==", "1": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=BdPKSxINcZObQDC70NWxLvOA3FM8wSUCTuE74rL23eR2HpFsFWKtNHYzHaHL6R2Yrm+ZHodTWPtGHGwNK6wuSZiH9+8ykTJFaACzcM2Fwb3lQjHfxmkEu/M2DCKxWi0p8RRteh9+Smi4/XfVIJ38wXfbMVRlDB7P783s11OnTH0m+illfMglRTJXA8bYGgul1ndi6NFKTLo4cVJgfZnQKA==", "2": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=BdPKSxINcZObQDC70NWxLvOA3FM8wSUCTuE74rL23eR2HpFsFWKtNCVh+luC94SgnRaSzC3dZmboEyZGCTZQXGS/yUkBUvThK0HZgA1C4AGxzJCtT0EC3h5PFeAkVcMYsJ9MXbl4u4qQsP+xaLsnCdQCfVj8UUYFH/vcGamvfKroTqQjDlLzWcHhnHrLS23TmZ9pifaPIA+YkCUjotx4/w=="}</t>
+          <t>{"0": "Switch - Power Seat"}</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
+        <is>
+          <t>{"Brand": "STD", "Partdesc_En": "Power Seat Switch", "Partlongdesc_En": "Power Seat Switch", "Pop": "F", "Qtyeach": 1}</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
         <is>
           <t>{"0": {"Warranty": "3 years/36,000 mile"}, "1": {"Connector Gender": "Female"}, "2": {"Terminal Quantity": "10"}, "3": {"Terminal Gender": "Male"}, "4": {"Terminal Type": "Blade Terminals"}, "5": {"Color/Finish": "Black"}, "6": {"Finish": "Plastic"}, "7": {"Contents": "1 Switch"}}</t>
         </is>
@@ -952,15 +951,33 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>DS-1104</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>STD</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>DS-1104</t>
-        </is>
-      </c>
       <c r="D5" t="inlineStr">
+        <is>
+          <t>Power Seat Switch</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Power Seat Switch</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Chrysler 300M (04-00)
 Chrysler Concorde (04-97)
@@ -979,55 +996,30 @@
 Plymouth Voyager (00-96)</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>https://www.standardbrand.com/en/ecatalog?part=DS-1104&amp;type=p&amp;search=s</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>https://www.standardbrand.com/en/ecatalog?part=DS1104&amp;type=p&amp;search=s</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Switch - Power Seat</t>
+        </is>
+      </c>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Power Seat Switch</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>Power Seat Switch</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>1. Fuel Filter Flush (Required)
-2. Oil Change (Required)</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>STD</t>
-        </is>
-      </c>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr">
         <is>
           <t>Male</t>
@@ -1050,15 +1042,20 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>DS1104</t>
+          <t>{"0": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=BdPKSxINcZNDMdnWHutO6/OA3FM8wSUCTuE74rL23eR2HpFsFWKtNApW5O0Vj4imnRaSzC3dZmboEyZGCTZQXGS/yUkBUvThK0HZgA1C4AGxzJCtT0EC3h5PFeAkVcMYsJ9MXbl4u4qQsP+xaLsnCdQCfVj8UUYFH/vcGamvfKrZu7Cn8K35U8mHI0SaQQhK60GG3xNox81tp5EMIddhrA==", "1": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=BdPKSxINcZNDMdnWHutO6/OA3FM8wSUCTuE74rL23eR2HpFsFWKtNBqvMm+BpHh3nRaSzC3dZmboEyZGCTZQXGS/yUkBUvThK0HZgA1C4AGxzJCtT0EC3h5PFeAkVcMYsJ9MXbl4u4qQsP+xaLsnCdQCfVj8UUYFH/vcGamvfKrZu7Cn8K35U8mHI0SaQQhK60GG3xNox81tp5EMIddhrA==", "2": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=BdPKSxINcZNDMdnWHutO6/OA3FM8wSUCTuE74rL23eR2HpFsFWKtNGfzpel+6/dOnRaSzC3dZmboEyZGCTZQXGS/yUkBUvThK0HZgA1C4AGxzJCtT0EC3h5PFeAkVcMYsJ9MXbl4u4qQsP+xaLsnCdQCfVj8UUYFH/vcGamvfKrZu7Cn8K35U8mHI0SaQQhK60GG3xNox81tp5EMIddhrA=="}</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>{"0": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=BdPKSxINcZNDMdnWHutO6/OA3FM8wSUCTuE74rL23eR2HpFsFWKtNApW5O0Vj4imnRaSzC3dZmboEyZGCTZQXGS/yUkBUvThK0HZgA1C4AGxzJCtT0EC3h5PFeAkVcMYsJ9MXbl4u4qQsP+xaLsnCdQCfVj8UUYFH/vcGamvfKroTqQjDlLzWcHhnHrLS23Taq+ki1B5myCYkCUjotx4/w==", "1": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=BdPKSxINcZNDMdnWHutO6/OA3FM8wSUCTuE74rL23eR2HpFsFWKtNBqvMm+BpHh3nRaSzC3dZmboEyZGCTZQXGS/yUkBUvThK0HZgA1C4AGxzJCtT0EC3h5PFeAkVcMYsJ9MXbl4u4qQsP+xaLsnCdQCfVj8UUYFH/vcGamvfKroTqQjDlLzWcHhnHrLS23Taq+ki1B5myCYkCUjotx4/w==", "2": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=BdPKSxINcZNDMdnWHutO6/OA3FM8wSUCTuE74rL23eR2HpFsFWKtNGfzpel+6/dOnRaSzC3dZmboEyZGCTZQXGS/yUkBUvThK0HZgA1C4AGxzJCtT0EC3h5PFeAkVcMYsJ9MXbl4u4qQsP+xaLsnCdQCfVj8UUYFH/vcGamvfKroTqQjDlLzWcHhnHrLS23Taq+ki1B5myCYkCUjotx4/w=="}</t>
+          <t>{"0": "Switch - Power Seat"}</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
+        <is>
+          <t>{"Brand": "STD", "Partdesc_En": "Power Seat Switch", "Partlongdesc_En": "Power Seat Switch", "Pop": "F", "Qtyeach": 1}</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
         <is>
           <t>{"0": {"Warranty": "3 years/36,000 mile"}, "1": {"Connector Gender": "Female"}, "2": {"Terminal Quantity": "10"}, "3": {"Terminal Gender": "Male"}, "4": {"Terminal Type": "Blade Terminals"}}</t>
         </is>
@@ -1070,15 +1067,33 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>DS-1126</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>STD</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>DS-1126</t>
-        </is>
-      </c>
       <c r="D6" t="inlineStr">
+        <is>
+          <t>Power Seat Switch</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Power Seat Switch</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Chrysler Imperial (91)
 Chrysler New Yorker (91)
@@ -1089,55 +1104,34 @@
 Plymouth Voyager (90-88)</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>https://www.standardbrand.com/en/ecatalog?part=DS-1126&amp;type=p&amp;search=s</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>https://www.standardbrand.com/en/ecatalog?part=DS1126&amp;type=p&amp;search=s</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Switch - Power Seat</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Switch - Power Window</t>
+        </is>
+      </c>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Power Seat Switch</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>Power Seat Switch</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>1. Fuel Filter Flush (Required)
-2. Oil Change (Required)</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>STD</t>
-        </is>
-      </c>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr">
         <is>
           <t>Male</t>
@@ -1160,15 +1154,20 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>DS1126</t>
+          <t>{"0": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=BdPKSxINcZP6NDqrKyZIdvOA3FM8wSUCTuE74rL23eR2HpFsFWKtNHRX2gd+jlQ4nRaSzC3dZmboEyZGCTZQXGS/yUkBUvThK0HZgA1C4AGxzJCtT0EC3h5PFeAkVcMYsJ9MXbl4u4qQsP+xaLsnCdQCfVj8UUYFH/vcGamvfKrZu7Cn8K35U8mHI0SaQQhK60GG3xNox82OXXoTBkxz3A==", "1": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=BdPKSxINcZP6NDqrKyZIdvOA3FM8wSUCTuE74rL23eR2HpFsFWKtNBv9JpCfP/2fnRaSzC3dZmboEyZGCTZQXGS/yUkBUvThK0HZgA1C4AGxzJCtT0EC3h5PFeAkVcMYsJ9MXbl4u4qQsP+xaLsnCdQCfVj8UUYFH/vcGamvfKrZu7Cn8K35U8mHI0SaQQhK60GG3xNox82OXXoTBkxz3A==", "2": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=BdPKSxINcZP6NDqrKyZIdvOA3FM8wSUCTuE74rL23eR2HpFsFWKtNObwdegNup1AnRaSzC3dZmboEyZGCTZQXGS/yUkBUvThK0HZgA1C4AGxzJCtT0EC3h5PFeAkVcMYsJ9MXbl4u4qQsP+xaLsnCdQCfVj8UUYFH/vcGamvfKrZu7Cn8K35U8mHI0SaQQhK60GG3xNox82OXXoTBkxz3A=="}</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>{"0": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=BdPKSxINcZP6NDqrKyZIdvOA3FM8wSUCTuE74rL23eR2HpFsFWKtNHRX2gd+jlQ4nRaSzC3dZmboEyZGCTZQXGS/yUkBUvThK0HZgA1C4AGxzJCtT0EC3h5PFeAkVcMYsJ9MXbl4u4qQsP+xaLsnCdQCfVj8UUYFH/vcGamvfKroTqQjDlLzWcHhnHrLS23Taq+ki1B5myCYkCUjotx4/w==", "1": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=BdPKSxINcZP6NDqrKyZIdvOA3FM8wSUCTuE74rL23eR2HpFsFWKtNBv9JpCfP/2fnRaSzC3dZmboEyZGCTZQXGS/yUkBUvThK0HZgA1C4AGxzJCtT0EC3h5PFeAkVcMYsJ9MXbl4u4qQsP+xaLsnCdQCfVj8UUYFH/vcGamvfKroTqQjDlLzWcHhnHrLS23Taq+ki1B5myCYkCUjotx4/w==", "2": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=BdPKSxINcZP6NDqrKyZIdvOA3FM8wSUCTuE74rL23eR2HpFsFWKtNObwdegNup1AnRaSzC3dZmboEyZGCTZQXGS/yUkBUvThK0HZgA1C4AGxzJCtT0EC3h5PFeAkVcMYsJ9MXbl4u4qQsP+xaLsnCdQCfVj8UUYFH/vcGamvfKroTqQjDlLzWcHhnHrLS23Taq+ki1B5myCYkCUjotx4/w=="}</t>
+          <t>{"0": "Switch - Power Seat", "1": "Switch - Power Window"}</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
+        <is>
+          <t>{"Brand": "STD", "Partdesc_En": "Power Seat Switch", "Partlongdesc_En": "Power Seat Switch", "Pop": "F", "Qtyeach": 1}</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
         <is>
           <t>{"0": {"Warranty": "3 years/36,000 mile"}, "1": {"Connector Gender": "Female"}, "2": {"Terminal Quantity": "5"}, "3": {"Terminal Gender": "Male"}, "4": {"Terminal Type": "Pins"}}</t>
         </is>
@@ -1180,72 +1179,65 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>DS-2190</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>STI</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>DS-2190</t>
-        </is>
-      </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>Power Seat Switch</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Power Seat Switch</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
           <t>Kia Sorento (06-03)</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>https://www.standardbrand.com/en/ecatalog?part=DS-2190&amp;type=p&amp;search=s</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr"/>
+          <t>https://www.standardbrand.com/en/ecatalog?part=DS2190&amp;type=p&amp;search=s</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Switch - Power Seat</t>
+        </is>
+      </c>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Power Seat Switch</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Power Seat Switch</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>1. Fuel Filter Flush (Required)
-2. Oil Change (Required)</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>STD</t>
-        </is>
-      </c>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr">
         <is>
           <t>Male</t>
@@ -1268,15 +1260,20 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>DS2190</t>
+          <t>{"0": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=Ops7/J1VsFkAFesmAM4+NfOA3FM8wSUCTuE74rL23eSBFStBAkaZA7pJhXPCPfNhnRaSzC3dZmboEyZGCTZQXGS/yUkBUvThK0HZgA1C4AGxzJCtT0EC3h5PFeAkVcMYsJ9MXbl4u4qQsP+xaLsnCfi8uaNCstSIH/vcGamvfKrZu7Cn8K35U8mHI0SaQQhK60GG3xNox82PcOi22WdsKg==", "1": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=Ops7/J1VsFkAFesmAM4+NfOA3FM8wSUCTuE74rL23eSBFStBAkaZA4fB9IUnmVk8nRaSzC3dZmboEyZGCTZQXGS/yUkBUvThK0HZgA1C4AGxzJCtT0EC3h5PFeAkVcMYsJ9MXbl4u4qQsP+xaLsnCfi8uaNCstSIH/vcGamvfKrZu7Cn8K35U8mHI0SaQQhK60GG3xNox82PcOi22WdsKg==", "2": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=Ops7/J1VsFkAFesmAM4+NfOA3FM8wSUCTuE74rL23eSBFStBAkaZA4LWtJLrANUwnRaSzC3dZmboEyZGCTZQXGS/yUkBUvThK0HZgA1C4AGxzJCtT0EC3h5PFeAkVcMYsJ9MXbl4u4qQsP+xaLsnCfi8uaNCstSIH/vcGamvfKrZu7Cn8K35U8mHI0SaQQhK60GG3xNox82PcOi22WdsKg=="}</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>{"0": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=Ops7/J1VsFkAFesmAM4+NfOA3FM8wSUCTuE74rL23eSBFStBAkaZA7pJhXPCPfNhnRaSzC3dZmboEyZGCTZQXGS/yUkBUvThK0HZgA1C4AGxzJCtT0EC3h5PFeAkVcMYsJ9MXbl4u4qQsP+xaLsnCfi8uaNCstSIH/vcGamvfKroTqQjDlLzWcHhnHrLS23Taq+ki1B5myCYkCUjotx4/w==", "1": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=Ops7/J1VsFkAFesmAM4+NfOA3FM8wSUCTuE74rL23eSBFStBAkaZA4fB9IUnmVk8nRaSzC3dZmboEyZGCTZQXGS/yUkBUvThK0HZgA1C4AGxzJCtT0EC3h5PFeAkVcMYsJ9MXbl4u4qQsP+xaLsnCfi8uaNCstSIH/vcGamvfKroTqQjDlLzWcHhnHrLS23Taq+ki1B5myCYkCUjotx4/w==", "2": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=Ops7/J1VsFkAFesmAM4+NfOA3FM8wSUCTuE74rL23eSBFStBAkaZA4LWtJLrANUwnRaSzC3dZmboEyZGCTZQXGS/yUkBUvThK0HZgA1C4AGxzJCtT0EC3h5PFeAkVcMYsJ9MXbl4u4qQsP+xaLsnCfi8uaNCstSIH/vcGamvfKroTqQjDlLzWcHhnHrLS23Taq+ki1B5myCYkCUjotx4/w=="}</t>
+          <t>{"0": "Switch - Power Seat"}</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
+        <is>
+          <t>{"Brand": "STI", "Partdesc_En": "Power Seat Switch", "Partlongdesc_En": "Power Seat Switch", "Pop": "X", "Qtyeach": 1}</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
         <is>
           <t>{"0": {"Warranty": "3 years/36,000 mile"}, "1": {"Connector Quantity": "1"}, "2": {"Connector Gender": "Female"}, "3": {"Terminal Quantity": "10"}, "4": {"Terminal Gender": "Male"}, "5": {"Terminal Type": "Blade"}}</t>
         </is>
@@ -1288,68 +1285,61 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>DS-2250</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>STI</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>DS-2250</t>
-        </is>
-      </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>Power Seat Switch</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Power Seat Switch</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
           <t>Kia Sedona (05-02)</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>https://www.standardbrand.com/en/ecatalog?part=DS-2250&amp;type=p&amp;search=s</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>https://www.standardbrand.com/en/ecatalog?part=DS2250&amp;type=p&amp;search=s</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Switch - Power Seat</t>
+        </is>
+      </c>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Power Seat Switch</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>Power Seat Switch</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>1. Fuel Filter Flush (Required)
-2. Oil Change (Required)</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>STD</t>
-        </is>
-      </c>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr">
         <is>
           <t>Male</t>
@@ -1372,15 +1362,20 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>DS2250</t>
+          <t>{"0": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=Ops7/J1VsFke2v9uSpbCufOA3FM8wSUCTuE74rL23eTnRUXFITvZLwnBV0VbHJNznRaSzC3dZmboEyZGCTZQXGS/yUkBUvThK0HZgA1C4AGxzJCtT0EC3h5PFeAkVcMYsJ9MXbl4u4qQsP+xaLsnCfi8uaNCstSIH/vcGamvfKrZu7Cn8K35U8mHI0SaQQhK60GG3xNox81tp5EMIddhrA==", "1": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=Ops7/J1VsFke2v9uSpbCufOA3FM8wSUCTuE74rL23eTnRUXFITvZL4PUUTNTJnrCnRaSzC3dZmboEyZGCTZQXGS/yUkBUvThK0HZgA1C4AGxzJCtT0EC3h5PFeAkVcMYsJ9MXbl4u4qQsP+xaLsnCfi8uaNCstSIH/vcGamvfKrZu7Cn8K35U8mHI0SaQQhK60GG3xNox81tp5EMIddhrA==", "2": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=Ops7/J1VsFke2v9uSpbCufOA3FM8wSUCTuE74rL23eTnRUXFITvZL0HjtMDwasgEnRaSzC3dZmboEyZGCTZQXGS/yUkBUvThK0HZgA1C4AGxzJCtT0EC3h5PFeAkVcMYsJ9MXbl4u4qQsP+xaLsnCfi8uaNCstSIH/vcGamvfKrZu7Cn8K35U8mHI0SaQQhK60GG3xNox81tp5EMIddhrA=="}</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>{"0": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=Ops7/J1VsFke2v9uSpbCufOA3FM8wSUCTuE74rL23eTnRUXFITvZLwnBV0VbHJNznRaSzC3dZmboEyZGCTZQXGS/yUkBUvThK0HZgA1C4AGxzJCtT0EC3h5PFeAkVcMYsJ9MXbl4u4qQsP+xaLsnCfi8uaNCstSIH/vcGamvfKroTqQjDlLzWcHhnHrLS23T4PRWEoGLdXWYkCUjotx4/w==", "1": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=Ops7/J1VsFke2v9uSpbCufOA3FM8wSUCTuE74rL23eTnRUXFITvZL4PUUTNTJnrCnRaSzC3dZmboEyZGCTZQXGS/yUkBUvThK0HZgA1C4AGxzJCtT0EC3h5PFeAkVcMYsJ9MXbl4u4qQsP+xaLsnCfi8uaNCstSIH/vcGamvfKroTqQjDlLzWcHhnHrLS23T4PRWEoGLdXWYkCUjotx4/w==", "2": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=Ops7/J1VsFke2v9uSpbCufOA3FM8wSUCTuE74rL23eTnRUXFITvZL0HjtMDwasgEnRaSzC3dZmboEyZGCTZQXGS/yUkBUvThK0HZgA1C4AGxzJCtT0EC3h5PFeAkVcMYsJ9MXbl4u4qQsP+xaLsnCfi8uaNCstSIH/vcGamvfKroTqQjDlLzWcHhnHrLS23T4PRWEoGLdXWYkCUjotx4/w=="}</t>
+          <t>{"0": "Switch - Power Seat"}</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
+        <is>
+          <t>{"Brand": "STI", "Partdesc_En": "Power Seat Switch", "Partlongdesc_En": "Power Seat Switch", "Pop": "Q", "Qtyeach": 1}</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
         <is>
           <t>{"0": {"Warranty": "3 years/36,000 mile"}, "1": {"Connector Gender": "Female"}, "2": {"Terminal Quantity": "6"}, "3": {"Terminal Gender": "Male"}, "4": {"Terminal Type": "Blade"}}</t>
         </is>
@@ -1392,68 +1387,61 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>DS-2251</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>STI</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>DS-2251</t>
-        </is>
-      </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>Power Seat Switch</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Power Seat Switch</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
           <t>Kia Sedona (05-02)</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>https://www.standardbrand.com/en/ecatalog?part=DS-2251&amp;type=p&amp;search=s</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>Female + Female + Female; Female; Male; Male; Male</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>https://www.standardbrand.com/en/ecatalog?part=DS2251&amp;type=p&amp;search=s</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Switch - Power Seat</t>
+        </is>
+      </c>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Power Seat Switch</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>Power Seat Switch</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>1. Fuel Filter Flush (Required)
-2. Oil Change (Required)</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>STD</t>
-        </is>
-      </c>
+          <t>Female + Female + Female; Female; Male; Male; Male</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr">
         <is>
           <t>Male</t>
@@ -1476,15 +1464,20 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>DS2251</t>
+          <t>{"0": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=Ops7/J1VsFlkH/9G17P3rvOA3FM8wSUCTuE74rL23eTnRUXFITvZL1MAzUTv3+wTnRaSzC3dZmboEyZGCTZQXGS/yUkBUvThK0HZgA1C4AGxzJCtT0EC3h5PFeAkVcMYsJ9MXbl4u4qQsP+xaLsnCfi8uaNCstSIH/vcGamvfKrZu7Cn8K35U8mHI0SaQQhK60GG3xNox804cVJgfZnQKA==", "1": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=Ops7/J1VsFlkH/9G17P3rvOA3FM8wSUCTuE74rL23eTnRUXFITvZL9mbOapKyLOYnRaSzC3dZmboEyZGCTZQXGS/yUkBUvThK0HZgA1C4AGxzJCtT0EC3h5PFeAkVcMYsJ9MXbl4u4qQsP+xaLsnCfi8uaNCstSIH/vcGamvfKrZu7Cn8K35U8mHI0SaQQhK60GG3xNox804cVJgfZnQKA==", "2": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=Ops7/J1VsFlkH/9G17P3rvOA3FM8wSUCTuE74rL23eTnRUXFITvZL/zQQpVRj1PRnRaSzC3dZmboEyZGCTZQXGS/yUkBUvThK0HZgA1C4AGxzJCtT0EC3h5PFeAkVcMYsJ9MXbl4u4qQsP+xaLsnCfi8uaNCstSIH/vcGamvfKrZu7Cn8K35U8mHI0SaQQhK60GG3xNox804cVJgfZnQKA=="}</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>{"0": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=Ops7/J1VsFlkH/9G17P3rvOA3FM8wSUCTuE74rL23eTnRUXFITvZL1MAzUTv3+wTnRaSzC3dZmboEyZGCTZQXGS/yUkBUvThK0HZgA1C4AGxzJCtT0EC3h5PFeAkVcMYsJ9MXbl4u4qQsP+xaLsnCfi8uaNCstSIH/vcGamvfKroTqQjDlLzWcHhnHrLS23T4PRWEoGLdXWYkCUjotx4/w==", "1": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=Ops7/J1VsFlkH/9G17P3rvOA3FM8wSUCTuE74rL23eTnRUXFITvZL9mbOapKyLOYnRaSzC3dZmboEyZGCTZQXGS/yUkBUvThK0HZgA1C4AGxzJCtT0EC3h5PFeAkVcMYsJ9MXbl4u4qQsP+xaLsnCfi8uaNCstSIH/vcGamvfKroTqQjDlLzWcHhnHrLS23T4PRWEoGLdXWYkCUjotx4/w==", "2": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=Ops7/J1VsFlkH/9G17P3rvOA3FM8wSUCTuE74rL23eTnRUXFITvZL/zQQpVRj1PRnRaSzC3dZmboEyZGCTZQXGS/yUkBUvThK0HZgA1C4AGxzJCtT0EC3h5PFeAkVcMYsJ9MXbl4u4qQsP+xaLsnCfi8uaNCstSIH/vcGamvfKroTqQjDlLzWcHhnHrLS23T4PRWEoGLdXWYkCUjotx4/w=="}</t>
+          <t>{"0": "Switch - Power Seat"}</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
+        <is>
+          <t>{"Brand": "STI", "Partdesc_En": "Power Seat Switch", "Partlongdesc_En": "Power Seat Switch", "Pop": "X", "Qtyeach": 1}</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
         <is>
           <t>{"0": {"Warranty": "3 years/36,000 mile"}, "1": {"Connector Gender": "Female + Female + Female; Female; Male; Male; Male"}, "2": {"Terminal Quantity": "10"}, "3": {"Terminal Gender": "Male"}, "4": {"Terminal Type": "Blade"}}</t>
         </is>
@@ -1496,76 +1489,69 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>DS-2425</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>STD</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>DS-2425</t>
-        </is>
-      </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>Power Seat Lumbar Switch</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Power Seat Lumbar Switch</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
           <t>Buick Encore (13)</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>https://www.standardbrand.com/en/ecatalog?part=DS-2425&amp;type=p&amp;search=s</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>https://www.standardbrand.com/en/ecatalog?part=DS2425&amp;type=p&amp;search=s</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Switch - Power Seat Lumbar</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr">
         <is>
           <t>Black</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>1 Switch</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>Plastic</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>Power Seat Lumbar Switch</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>Power Seat Lumbar Switch</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>1. Fuel Filter Flush (Required)
-2. Oil Change (Required)</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>STD</t>
-        </is>
-      </c>
+      <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr">
         <is>
           <t>Male</t>
@@ -1588,15 +1574,20 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>DS2425</t>
+          <t>{"0": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=Ops7/J1VsFlbKpTq/3IwMPOA3FM8wSUCTuE74rL23eTLGkLc29lYO7Y1ILnIjSKAnRaSzC3dZmboEyZGCTZQXGS/yUkBUvThK0HZgA1C4AGxzJCtT0EC3h5PFeAkVcMYsJ9MXbl4u4qQsP+xaLsnCdQCfVj8UUYFH/vcGamvfKrZu7Cn8K35U8mHI0SaQQhK60GG3xNox82PcOi22WdsKg==", "1": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=Ops7/J1VsFlbKpTq/3IwMPOA3FM8wSUCTuE74rL23eTLGkLc29lYO0JDOT8Of11pnRaSzC3dZmboEyZGCTZQXGS/yUkBUvThK0HZgA1C4AGxzJCtT0EC3h5PFeAkVcMYsJ9MXbl4u4qQsP+xaLsnCdQCfVj8UUYFH/vcGamvfKrZu7Cn8K35U8mHI0SaQQhK60GG3xNox82PcOi22WdsKg==", "2": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=Ops7/J1VsFlbKpTq/3IwMPOA3FM8wSUCTuE74rL23eTLGkLc29lYOz3SPzTNM079nRaSzC3dZmboEyZGCTZQXGS/yUkBUvThK0HZgA1C4AGxzJCtT0EC3h5PFeAkVcMYsJ9MXbl4u4qQsP+xaLsnCdQCfVj8UUYFH/vcGamvfKrZu7Cn8K35U8mHI0SaQQhK60GG3xNox82PcOi22WdsKg=="}</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>{"0": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=Ops7/J1VsFlbKpTq/3IwMPOA3FM8wSUCTuE74rL23eTLGkLc29lYO7Y1ILnIjSKAnRaSzC3dZmboEyZGCTZQXGS/yUkBUvThK0HZgA1C4AGxzJCtT0EC3h5PFeAkVcMYsJ9MXbl4u4qQsP+xaLsnCdQCfVj8UUYFH/vcGamvfKroTqQjDlLzWcHhnHrLS23TxiGl08aZv7KYkCUjotx4/w==", "1": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=Ops7/J1VsFlbKpTq/3IwMPOA3FM8wSUCTuE74rL23eTLGkLc29lYO0JDOT8Of11pnRaSzC3dZmboEyZGCTZQXGS/yUkBUvThK0HZgA1C4AGxzJCtT0EC3h5PFeAkVcMYsJ9MXbl4u4qQsP+xaLsnCdQCfVj8UUYFH/vcGamvfKroTqQjDlLzWcHhnHrLS23TxiGl08aZv7KYkCUjotx4/w==", "2": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=Ops7/J1VsFlbKpTq/3IwMPOA3FM8wSUCTuE74rL23eTLGkLc29lYOz3SPzTNM079nRaSzC3dZmboEyZGCTZQXGS/yUkBUvThK0HZgA1C4AGxzJCtT0EC3h5PFeAkVcMYsJ9MXbl4u4qQsP+xaLsnCdQCfVj8UUYFH/vcGamvfKroTqQjDlLzWcHhnHrLS23TxiGl08aZv7KYkCUjotx4/w=="}</t>
+          <t>{"0": "Switch - Power Seat Lumbar"}</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
+        <is>
+          <t>{"Brand": "STD", "Partdesc_En": "Power Seat Lumbar Switch", "Partlongdesc_En": "Power Seat Lumbar Switch", "Pop": "F", "Qtyeach": 1}</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
         <is>
           <t>{"0": {"Warranty": "3 years/36,000 mile"}, "1": {"Terminal Quantity": "4"}, "2": {"Terminal Gender": "Male"}, "3": {"Terminal Type": "Blade"}, "4": {"Color/Finish": "Black"}, "5": {"Finish": "Plastic"}, "6": {"Contents": "1 Switch"}}</t>
         </is>
@@ -1608,15 +1599,33 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>DS-3092</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>STD</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>DS-3092</t>
-        </is>
-      </c>
       <c r="D11" t="inlineStr">
+        <is>
+          <t>Heated Seat Switch</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Heated Seat Switch</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Cadillac Escalade (07-03)
 Cadillac Escalade ESV (07-03)
@@ -1641,83 +1650,62 @@
 GMC Sierra 3500 HD (07)</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>https://www.standardbrand.com/en/ecatalog?part=DS-3092&amp;type=p&amp;search=s</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>https://www.standardbrand.com/en/ecatalog?part=DS3092&amp;type=p&amp;search=s</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Switch - Heated Seat</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Switch - Power Seat Memory</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
         <is>
           <t>Push-on</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>Black, Green</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>Rectangular</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="R11" t="inlineStr">
         <is>
           <t>Switch</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="S11" t="inlineStr">
         <is>
           <t>Plastic</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>Heated Seats</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>Heated Seat Switch</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>Heated Seat Switch</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>1. Fuel Filter Flush (Required)
-2. Oil Change (Required)</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>STD</t>
-        </is>
-      </c>
       <c r="U11" t="inlineStr">
         <is>
           <t>Female</t>
@@ -1740,15 +1728,20 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>DS3092</t>
+          <t>{"0": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=oOFfYW7sc/hyuZ+1qGkYwPOA3FM8wSUCTuE74rL23eSCgVE9i8a0VYa0ods0MZognRaSzC3dZmboEyZGCTZQXGS/yUkBUvThK0HZgA1C4AGxzJCtT0EC3h5PFeAkVcMYsJ9MXbl4u4qQsP+xaLsnCdQCfVj8UUYFH/vcGamvfKrZu7Cn8K35U8mHI0SaQQhK60GG3xNox81tp5EMIddhrA==", "1": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=oOFfYW7sc/hyuZ+1qGkYwPOA3FM8wSUCTuE74rL23eSCgVE9i8a0VQyR0mQRUFmOnRaSzC3dZmboEyZGCTZQXGS/yUkBUvThK0HZgA1C4AGxzJCtT0EC3h5PFeAkVcMYsJ9MXbl4u4qQsP+xaLsnCdQCfVj8UUYFH/vcGamvfKrZu7Cn8K35U8mHI0SaQQhK60GG3xNox81tp5EMIddhrA==", "2": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=oOFfYW7sc/hyuZ+1qGkYwPOA3FM8wSUCTuE74rL23eSCgVE9i8a0Vfg2curvedi7nRaSzC3dZmboEyZGCTZQXGS/yUkBUvThK0HZgA1C4AGxzJCtT0EC3h5PFeAkVcMYsJ9MXbl4u4qQsP+xaLsnCdQCfVj8UUYFH/vcGamvfKrZu7Cn8K35U8mHI0SaQQhK60GG3xNox81tp5EMIddhrA==", "3": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=oOFfYW7sc/hyuZ+1qGkYwPOA3FM8wSUCTuE74rL23eSCgVE9i8a0VUMoYJe2qjunnRaSzC3dZmboEyZGCTZQXGS/yUkBUvThK0HZgA1C4AGxzJCtT0EC3h5PFeAkVcMYsJ9MXbl4u4qQsP+xaLsnCdQCfVj8UUYFH/vcGamvfKrZu7Cn8K35U8mHI0SaQQhK60GG3xNox81tp5EMIddhrA==", "4": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=oOFfYW7sc/hyuZ+1qGkYwPOA3FM8wSUCTuE74rL23eSCgVE9i8a0Vf9ftfS2X1M0nRaSzC3dZmboEyZGCTZQXGS/yUkBUvThK0HZgA1C4AGxzJCtT0EC3h5PFeAkVcMYsJ9MXbl4u4qQsP+xaLsnCdQCfVj8UUYFH/vcGamvfKrZu7Cn8K35U8mHI0SaQQhK60GG3xNox81tp5EMIddhrA==", "5": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=oOFfYW7sc/hyuZ+1qGkYwPOA3FM8wSUCTuE74rL23eSCgVE9i8a0Vewm4dlCYgLanRaSzC3dZmboEyZGCTZQXGS/yUkBUvThK0HZgA1C4AGxzJCtT0EC3h5PFeAkVcMYsJ9MXbl4u4qQsP+xaLsnCdQCfVj8UUYFH/vcGamvfKrZu7Cn8K35U8mHI0SaQQhK60GG3xNox81tp5EMIddhrA==", "6": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=oOFfYW7sc/hyuZ+1qGkYwPOA3FM8wSUCTuE74rL23eSCgVE9i8a0VUzUiiwdgTp7nRaSzC3dZmboEyZGCTZQXGS/yUkBUvThK0HZgA1C4AGxzJCtT0EC3h5PFeAkVcMYsJ9MXbl4u4qQsP+xaLsnCdQCfVj8UUYFH/vcGamvfKrZu7Cn8K35U8mHI0SaQQhK60GG3xNox81tp5EMIddhrA=="}</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>{"0": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=oOFfYW7sc/hyuZ+1qGkYwPOA3FM8wSUCTuE74rL23eSCgVE9i8a0VYa0ods0MZognRaSzC3dZmboEyZGCTZQXGS/yUkBUvThK0HZgA1C4AGxzJCtT0EC3h5PFeAkVcMYsJ9MXbl4u4qQsP+xaLsnCdQCfVj8UUYFH/vcGamvfKroTqQjDlLzWcHhnHrLS23T4PRWEoGLdXWYkCUjotx4/w==", "1": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=oOFfYW7sc/hyuZ+1qGkYwPOA3FM8wSUCTuE74rL23eSCgVE9i8a0VQyR0mQRUFmOnRaSzC3dZmboEyZGCTZQXGS/yUkBUvThK0HZgA1C4AGxzJCtT0EC3h5PFeAkVcMYsJ9MXbl4u4qQsP+xaLsnCdQCfVj8UUYFH/vcGamvfKroTqQjDlLzWcHhnHrLS23T4PRWEoGLdXWYkCUjotx4/w==", "2": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=oOFfYW7sc/hyuZ+1qGkYwPOA3FM8wSUCTuE74rL23eSCgVE9i8a0Vfg2curvedi7nRaSzC3dZmboEyZGCTZQXGS/yUkBUvThK0HZgA1C4AGxzJCtT0EC3h5PFeAkVcMYsJ9MXbl4u4qQsP+xaLsnCdQCfVj8UUYFH/vcGamvfKroTqQjDlLzWcHhnHrLS23T4PRWEoGLdXWYkCUjotx4/w==", "3": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=oOFfYW7sc/hyuZ+1qGkYwPOA3FM8wSUCTuE74rL23eSCgVE9i8a0VUMoYJe2qjunnRaSzC3dZmboEyZGCTZQXGS/yUkBUvThK0HZgA1C4AGxzJCtT0EC3h5PFeAkVcMYsJ9MXbl4u4qQsP+xaLsnCdQCfVj8UUYFH/vcGamvfKroTqQjDlLzWcHhnHrLS23T4PRWEoGLdXWYkCUjotx4/w==", "4": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=oOFfYW7sc/hyuZ+1qGkYwPOA3FM8wSUCTuE74rL23eSCgVE9i8a0Vf9ftfS2X1M0nRaSzC3dZmboEyZGCTZQXGS/yUkBUvThK0HZgA1C4AGxzJCtT0EC3h5PFeAkVcMYsJ9MXbl4u4qQsP+xaLsnCdQCfVj8UUYFH/vcGamvfKroTqQjDlLzWcHhnHrLS23T4PRWEoGLdXWYkCUjotx4/w==", "5": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=oOFfYW7sc/hyuZ+1qGkYwPOA3FM8wSUCTuE74rL23eSCgVE9i8a0Vewm4dlCYgLanRaSzC3dZmboEyZGCTZQXGS/yUkBUvThK0HZgA1C4AGxzJCtT0EC3h5PFeAkVcMYsJ9MXbl4u4qQsP+xaLsnCdQCfVj8UUYFH/vcGamvfKroTqQjDlLzWcHhnHrLS23T4PRWEoGLdXWYkCUjotx4/w==", "6": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=oOFfYW7sc/hyuZ+1qGkYwPOA3FM8wSUCTuE74rL23eSCgVE9i8a0VUzUiiwdgTp7nRaSzC3dZmboEyZGCTZQXGS/yUkBUvThK0HZgA1C4AGxzJCtT0EC3h5PFeAkVcMYsJ9MXbl4u4qQsP+xaLsnCdQCfVj8UUYFH/vcGamvfKroTqQjDlLzWcHhnHrLS23T4PRWEoGLdXWYkCUjotx4/w=="}</t>
+          <t>{"0": "Switch - Heated Seat", "1": "Switch - Power Seat Memory"}</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
+        <is>
+          <t>{"Brand": "STD", "Partdesc_En": "Heated Seat Switch", "Partlongdesc_En": "Heated Seat Switch", "Pop": "D", "Qtyeach": 1}</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
         <is>
           <t>{"0": {"Warranty": "3 years/36,000 mile"}, "1": {"Functions": "Heated Seats"}, "2": {"Connector Quantity": "1"}, "3": {"Connector Shape": "Rectangular"}, "4": {"Connector Gender": "Male"}, "5": {"Terminal Quantity": "10"}, "6": {"Terminal Gender": "Female"}, "7": {"Terminal Type": "Pins"}, "8": {"Attachment Method": "Push-on"}, "9": {"Color/Finish": "Black, Green"}, "10": {"Finish": "Plastic"}, "11": {"Contents": "Switch"}}</t>
         </is>
